--- a/public_html/salesbycustomerdetail.xlsx
+++ b/public_html/salesbycustomerdetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Customer</t>
   </si>
@@ -42,75 +42,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>CV. Susah MoveOn</t>
-  </si>
-  <si>
-    <t>SO/VH/060321 09:47:06/00002</t>
-  </si>
-  <si>
-    <t>Rifan</t>
-  </si>
-  <si>
-    <t>Nama Liquid</t>
-  </si>
-  <si>
-    <t>30-11--0001</t>
-  </si>
-  <si>
-    <t>dasdasd2</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Total Invoice</t>
-  </si>
-  <si>
-    <t>SO/VH/070321 07:34:55/00001</t>
-  </si>
-  <si>
-    <t>07-03-2021</t>
-  </si>
-  <si>
-    <t>fgfg</t>
-  </si>
-  <si>
-    <t>SO/VH/080321 02:49:43/00001</t>
-  </si>
-  <si>
-    <t>08-03-2021</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>SO/VH/080321 04:09:09/00002</t>
-  </si>
-  <si>
-    <t>ketket</t>
-  </si>
-  <si>
-    <t>Alacarte - Cream Biscuit By Jnc</t>
-  </si>
-  <si>
-    <t>We Angel</t>
-  </si>
-  <si>
-    <t>SO/VH/290421 05:26:00/00001</t>
-  </si>
-  <si>
-    <t>sadasd</t>
-  </si>
-  <si>
-    <t>hkjahsk</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t>Total for CV. Susah MoveOn</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -455,10 +386,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,360 +427,12 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>225000</v>
-      </c>
       <c r="I2" s="1">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>204998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>225000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8"/>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>225000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>222000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>225000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>190000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>41800.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>376200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18"/>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>225000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1">
-        <v>231000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1034198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5937980</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="B27:I27"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
